--- a/Assets/Text/Character.xlsx
+++ b/Assets/Text/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dodos\Desktop\Dev\Unity Projects\Witch\Assets\Text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168BA32B-457C-4C0C-927D-3B29CC88174D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD636339-8395-4D4F-A827-C44DD74CE6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,71 +20,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>항목 이름</t>
+    <t>캐릭터 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>구분</t>
+    <t>스프라이트 번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>수리 비용</t>
+    <t>고장항목 ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>시각 장비 수리</t>
+    <t>테스트캐릭터1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">OS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>버전 업데이트</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>열 감지 센서 장착</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hardware</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Software</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tuning</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미 데이터 정리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회로 청소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>테스트캐릭터2</t>
+  </si>
+  <si>
+    <t>테스트캐릭터3</t>
+  </si>
+  <si>
+    <t>테스트캐릭터4</t>
+  </si>
+  <si>
+    <t>테스트캐릭터5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -132,6 +105,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -162,6 +142,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -380,10 +361,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -392,131 +373,146 @@
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
